--- a/MedicalLink/Templates/So_XetNghiem_MienDich.xlsx
+++ b/MedicalLink/Templates/So_XetNghiem_MienDich.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$14</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +32,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>SỞ Y TẾ HẢI PHÒNG</t>
-  </si>
-  <si>
     <t>Họ tên người bệnh</t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>SỔ XÉT NGHIỆM MIỄN DỊCH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -280,9 +280,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -293,6 +290,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,202 +606,197 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="20"/>
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="21" t="s">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="F2" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="23" t="s">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="17" t="s">
+    <row r="9" spans="1:12" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L9" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>6</v>
-      </c>
-      <c r="G9" s="7">
-        <v>7</v>
-      </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
-      <c r="I9" s="7">
-        <v>9</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="19"/>
+      <c r="L12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/So_XetNghiem_MienDich.xlsx
+++ b/MedicalLink/Templates/So_XetNghiem_MienDich.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGUOIGUI</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA].DEPARTMENTGROUPNAME</t>
   </si>
   <si>
     <t>SỔ XÉT NGHIỆM MIỄN DỊCH</t>
@@ -229,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -276,25 +273,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,7 +581,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,46 +601,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="F1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="F2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+    <row r="3" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -697,8 +689,8 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
@@ -773,13 +765,20 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="23"/>
+      <c r="L12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="L6:L7"/>
@@ -787,16 +786,9 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
